--- a/AulaEstatisticaAplicadaExcel.xlsx
+++ b/AulaEstatisticaAplicadaExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450D301E-2BE2-4748-B318-C06D3A319FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA12D0C-6FB9-4A46-932A-ED44F9BA0E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{742F1B5D-DC0F-416C-9C86-067029DF3EBE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14028" windowHeight="12336" activeTab="5" xr2:uid="{742F1B5D-DC0F-416C-9C86-067029DF3EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -18,38 +18,50 @@
     <sheet name="Planilha4" sheetId="4" r:id="rId3"/>
     <sheet name="BASE DE DADOS" sheetId="1" r:id="rId4"/>
     <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BASE DE DADOS'!$A$1:$E$18</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'BASE DE DADOS'!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BASE DE DADOS'!$B$2:$B$18</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'BASE DE DADOS'!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'BASE DE DADOS'!$E$2:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Planilha1!$A$1:$A$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'BASE DE DADOS'!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'BASE DE DADOS'!$E$2:$E$18</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Planilha1!$A$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Planilha1!$A$2:$A$18</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'BASE DE DADOS'!$E$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'BASE DE DADOS'!$E$2:$E$18</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BASE DE DADOS'!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'BASE DE DADOS'!$E$2:$E$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'BASE DE DADOS'!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'BASE DE DADOS'!$E$2:$E$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'BASE DE DADOS'!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'BASE DE DADOS'!$E$2:$E$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$A$2:$A$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Planilha1!$A$25</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Planilha1!$A$26:$A$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Planilha1!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Planilha1!$A$2:$A$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId6"/>
-    <pivotCache cacheId="12" r:id="rId7"/>
-    <pivotCache cacheId="29" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -86,13 +98,100 @@
   <si>
     <t>Contagem de Idade</t>
   </si>
+  <si>
+    <t>disperssao e histograma</t>
+  </si>
+  <si>
+    <t>ajuda a ver o ~shape~ dos dados</t>
+  </si>
+  <si>
+    <t>media vs mediana</t>
+  </si>
+  <si>
+    <t>analise estatistica sempre tende a uma decisão</t>
+  </si>
+  <si>
+    <t>dificil provar algo, so com muitos dados e consistencia</t>
+  </si>
+  <si>
+    <t>prova != probabilista, evitar usar a palavra</t>
+  </si>
+  <si>
+    <t>mediana é mais dificil de entender em dados pequenos</t>
+  </si>
+  <si>
+    <t>depende do contexto e relevencia do dado</t>
+  </si>
+  <si>
+    <t>(MEDIANA)</t>
+  </si>
+  <si>
+    <t>QUARTIL 1</t>
+  </si>
+  <si>
+    <t>QUARTIL 2</t>
+  </si>
+  <si>
+    <t>QUARTIL 3</t>
+  </si>
+  <si>
+    <t>o grafico gera automaticamente</t>
+  </si>
+  <si>
+    <t>os quartis (3 medianas)</t>
+  </si>
+  <si>
+    <t>a media</t>
+  </si>
+  <si>
+    <t>Boxplot Gráfico</t>
+  </si>
+  <si>
+    <t>e dos dados dispersos (distancia)</t>
+  </si>
+  <si>
+    <t>a reta limitando a idade são wiskers</t>
+  </si>
+  <si>
+    <t>representa os valores extremos (outlines)</t>
+  </si>
+  <si>
+    <t>o que esta fora 'não ta legal'</t>
+  </si>
+  <si>
+    <t>(ex: idade 33 e 38 estão acima)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,7 +228,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2041,12 +2153,365 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Idade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D78D-4FB7-A970-64AD7830FA96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696927200"/>
+        <c:axId val="696917480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696927200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696917480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="696917480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696927200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2084,7 +2549,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{22E7B464-5C23-4DE5-9AFE-75C2C9C09CC9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Altura</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2118,7 +2583,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2156,7 +2621,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{22E7B464-5C23-4DE5-9AFE-75C2C9C09CC9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Altura</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2201,6 +2666,144 @@
     </cx:plotArea>
   </cx:chart>
   <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Idade</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Idade</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{58BA024C-2E1B-4590-AFC3-4BC2F1A78192}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Idade</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Caixa de Idades</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Caixa de Idades</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B46AB8BE-C01F-420E-B737-48ED8D83DFE3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Idade</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
 </cx:chartSpace>
 </file>
 
@@ -2404,6 +3007,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5018,6 +5741,1545 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5195,8 +7457,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7800975" y="266700"/>
-              <a:ext cx="4986337" cy="2995612"/>
+              <a:off x="8020050" y="259080"/>
+              <a:ext cx="5117782" cy="2873692"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5215,7 +7477,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>Este gráfico não está disponível na sua versão de Excel.
 Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
               </a:r>
@@ -5322,8 +7584,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5781675" y="209550"/>
-              <a:ext cx="4986337" cy="2995612"/>
+              <a:off x="5781675" y="201930"/>
+              <a:ext cx="4986337" cy="2881312"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5342,7 +7604,204 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE954F3B-D539-EDBB-B1F6-E10D7F2A2D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A920E66-C6ED-1A8C-84C6-0C5ADB1CD65D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7212330" y="262890"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9486B6-5BCC-7F8B-FA7C-50A6DD3A419E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="605790" y="4027170"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
                 <a:t>Este gráfico não está disponível na sua versão de Excel.
 Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
               </a:r>
@@ -5848,7 +8307,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73251AB6-3D8E-45AA-BCC7-4FE79FC1EA45}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73251AB6-3D8E-45AA-BCC7-4FE79FC1EA45}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5916,7 +8375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35619ECB-C048-4D75-A44D-6D0623CA1523}" name="Tabela dinâmica4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35619ECB-C048-4D75-A44D-6D0623CA1523}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5996,7 +8455,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4A1CBF9-FCBC-4713-8C83-7633DC05D626}" name="Tabela dinâmica15" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4A1CBF9-FCBC-4713-8C83-7633DC05D626}" name="Tabela dinâmica15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6116,9 +8575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6156,7 +8615,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6262,7 +8721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6404,7 +8863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6704,16 +9163,16 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6721,27 +9180,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>17</v>
       </c>
     </row>
@@ -6759,14 +9218,14 @@
       <selection activeCell="L11" sqref="L11:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6774,51 +9233,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>17</v>
       </c>
     </row>
@@ -6836,13 +9295,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6850,83 +9309,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>23</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -6941,15 +9400,15 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B1" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="23" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6966,7 +9425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6983,7 +9442,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7000,7 +9459,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7017,7 +9476,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7034,7 +9493,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7051,7 +9510,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7068,7 +9527,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7085,7 +9544,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7102,7 +9561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7119,7 +9578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7136,7 +9595,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7153,7 +9612,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7170,7 +9629,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7187,7 +9646,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7204,7 +9663,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7221,7 +9680,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7238,7 +9697,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7265,13 +9724,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3196348-C7DA-46E8-9668-9EF93BA22E9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38271A10-4B1E-42D5-8E1B-56022064AA3B}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5">
+        <f>MEDIAN(A2:A9)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5">
+        <f>MEDIAN(A11:A18)</f>
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="9"/>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A18" xr:uid="{38271A10-4B1E-42D5-8E1B-56022064AA3B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A18">
+      <sortCondition ref="A1:A18"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="10">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C5 C14" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>